--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/38/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/38/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6096096096096096</v>
+        <v>0.7698769876987699</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.05605605605606</v>
+        <v>1328.852885288529</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002102102102102102</v>
+        <v>0.065996599659966</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5125125125125125</v>
+        <v>0.3994399439943995</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1995.995995995996</v>
+        <v>394.1494149414942</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>237.2372372372373</v>
+        <v>315.031503150315</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>790.7907907907909</v>
+        <v>796.8829882988298</v>
       </c>
     </row>
   </sheetData>
